--- a/biology/Zoologie/Chlorizeinini/Chlorizeinini.xlsx
+++ b/biology/Zoologie/Chlorizeinini/Chlorizeinini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlorizeinini sont une tribu d'insectes orthoptères de la famille des Pyrgomorphidae et de la sous-famille des Pyrgomorphinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres et sous-tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File  (4 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File  (4 janvier 2021) :
 sous-tribu des Chlorizeinina Kevan &amp; Akbar, 1964
 genre Chlorizeina Brunner von Wattenwyl, 1893
 genre Feacris Kevan, 1969
@@ -552,7 +566,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en + fr) D. K. McE. Kevan et S. S. Akbar, « The Pyrgomorphidae (Orthoptera: Acridoidea): Their Systematics, Tribal Divisions and Distribution », The Canadian Entomologist, Ottawa, Société d'entomologie du Canada, vol. 96, no 12,‎ décembre 1964, p. 1505-1536 (ISSN 0008-347X et 1918-3240, OCLC 01553087, DOI 10.4039/ENT961505-12)</t>
         </is>
